--- a/Financials/Quarterly/PBR_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PBR_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F91EF8E-C69D-411A-B11A-8C5FDBEEC15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBR" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,148 +686,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>20936700</v>
+        <v>23771600</v>
       </c>
       <c r="E8" s="3">
-        <v>18472300</v>
+        <v>25191900</v>
       </c>
       <c r="F8" s="3">
-        <v>18981100</v>
+        <v>21637200</v>
       </c>
       <c r="G8" s="3">
-        <v>17817600</v>
+        <v>19090300</v>
       </c>
       <c r="H8" s="3">
-        <v>16620400</v>
+        <v>19616100</v>
       </c>
       <c r="I8" s="3">
+        <v>18413700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17176400</v>
+      </c>
+      <c r="K8" s="3">
         <v>16960000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>17486900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17475500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>13091700</v>
+        <v>15694800</v>
       </c>
       <c r="E9" s="3">
-        <v>11830400</v>
+        <v>16309900</v>
       </c>
       <c r="F9" s="3">
-        <v>12728700</v>
+        <v>13529700</v>
       </c>
       <c r="G9" s="3">
-        <v>12549100</v>
+        <v>12226200</v>
       </c>
       <c r="H9" s="3">
-        <v>11319100</v>
+        <v>13154600</v>
       </c>
       <c r="I9" s="3">
+        <v>12969000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11697900</v>
+      </c>
+      <c r="K9" s="3">
         <v>11059200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>11827700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>11686100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7845000</v>
+        <v>8076700</v>
       </c>
       <c r="E10" s="3">
-        <v>6641800</v>
+        <v>8882000</v>
       </c>
       <c r="F10" s="3">
-        <v>6252400</v>
+        <v>8107500</v>
       </c>
       <c r="G10" s="3">
-        <v>5268500</v>
+        <v>6864100</v>
       </c>
       <c r="H10" s="3">
-        <v>5301200</v>
+        <v>6461500</v>
       </c>
       <c r="I10" s="3">
+        <v>5444700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>5478600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5900800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5659200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5789400</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,37 +863,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>292000</v>
+        <v>282000</v>
       </c>
       <c r="E12" s="3">
-        <v>232500</v>
+        <v>266400</v>
       </c>
       <c r="F12" s="3">
-        <v>375300</v>
+        <v>301800</v>
       </c>
       <c r="G12" s="3">
-        <v>271900</v>
+        <v>240200</v>
       </c>
       <c r="H12" s="3">
-        <v>285800</v>
+        <v>387900</v>
       </c>
       <c r="I12" s="3">
+        <v>281000</v>
+      </c>
+      <c r="J12" s="3">
+        <v>295300</v>
+      </c>
+      <c r="K12" s="3">
         <v>157000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>430200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>583000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,37 +929,49 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>361900</v>
+        <v>2877100</v>
       </c>
       <c r="E14" s="3">
-        <v>329900</v>
+        <v>286400</v>
       </c>
       <c r="F14" s="3">
-        <v>901500</v>
+        <v>374100</v>
       </c>
       <c r="G14" s="3">
-        <v>420000</v>
+        <v>341000</v>
       </c>
       <c r="H14" s="3">
-        <v>33700</v>
+        <v>931700</v>
       </c>
       <c r="I14" s="3">
+        <v>434100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K14" s="3">
         <v>306100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>770000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>4455000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -920,8 +999,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -930,66 +1015,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>16725300</v>
+        <v>20802700</v>
       </c>
       <c r="E17" s="3">
-        <v>13926000</v>
+        <v>20578600</v>
       </c>
       <c r="F17" s="3">
-        <v>19211800</v>
+        <v>17284900</v>
       </c>
       <c r="G17" s="3">
-        <v>15779400</v>
+        <v>14391900</v>
       </c>
       <c r="H17" s="3">
-        <v>12749100</v>
+        <v>19854600</v>
       </c>
       <c r="I17" s="3">
+        <v>16307300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13175600</v>
+      </c>
+      <c r="K17" s="3">
         <v>13268100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>14717100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>19999000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>4211400</v>
+        <v>2968900</v>
       </c>
       <c r="E18" s="3">
-        <v>4546300</v>
+        <v>4613300</v>
       </c>
       <c r="F18" s="3">
-        <v>-230700</v>
+        <v>4352300</v>
       </c>
       <c r="G18" s="3">
-        <v>2038200</v>
+        <v>4698400</v>
       </c>
       <c r="H18" s="3">
-        <v>3871300</v>
+        <v>-238400</v>
       </c>
       <c r="I18" s="3">
+        <v>2106400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4000800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3691900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2769800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-2523500</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1001,153 +1100,185 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>330900</v>
+        <v>-181500</v>
       </c>
       <c r="E20" s="3">
-        <v>-575800</v>
+        <v>-765800</v>
       </c>
       <c r="F20" s="3">
-        <v>-954400</v>
+        <v>342000</v>
       </c>
       <c r="G20" s="3">
-        <v>-823600</v>
+        <v>-595100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1123800</v>
+        <v>-986300</v>
       </c>
       <c r="I20" s="3">
+        <v>-870400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1161400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-656200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-233200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-430200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>7262000</v>
+        <v>5588600</v>
       </c>
       <c r="E21" s="3">
-        <v>6713500</v>
+        <v>6590800</v>
       </c>
       <c r="F21" s="3">
-        <v>1406100</v>
+        <v>7505000</v>
       </c>
       <c r="G21" s="3">
-        <v>3915000</v>
+        <v>6938200</v>
       </c>
       <c r="H21" s="3">
-        <v>5323100</v>
+        <v>1453200</v>
       </c>
       <c r="I21" s="3">
+        <v>4026700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>5501100</v>
+      </c>
+      <c r="K21" s="3">
         <v>5706600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>5322300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>200900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>987600</v>
+        <v>1194200</v>
       </c>
       <c r="E22" s="3">
-        <v>1221800</v>
+        <v>731700</v>
       </c>
       <c r="F22" s="3">
-        <v>930500</v>
+        <v>1020600</v>
       </c>
       <c r="G22" s="3">
-        <v>1014900</v>
+        <v>1262700</v>
       </c>
       <c r="H22" s="3">
-        <v>1068000</v>
+        <v>961700</v>
       </c>
       <c r="I22" s="3">
+        <v>1029600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1103700</v>
+      </c>
+      <c r="K22" s="3">
         <v>1267700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1239900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1336700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3554700</v>
+        <v>1593100</v>
       </c>
       <c r="E23" s="3">
-        <v>2748700</v>
+        <v>3115800</v>
       </c>
       <c r="F23" s="3">
-        <v>-2115600</v>
+        <v>3673700</v>
       </c>
       <c r="G23" s="3">
-        <v>199700</v>
+        <v>2840700</v>
       </c>
       <c r="H23" s="3">
-        <v>1679500</v>
+        <v>-2186400</v>
       </c>
       <c r="I23" s="3">
+        <v>206400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1735700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1768100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1296700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4290300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>1150600</v>
+        <v>829600</v>
       </c>
       <c r="E24" s="3">
-        <v>981200</v>
+        <v>1345700</v>
       </c>
       <c r="F24" s="3">
-        <v>-782900</v>
+        <v>1189100</v>
       </c>
       <c r="G24" s="3">
-        <v>38500</v>
+        <v>1014000</v>
       </c>
       <c r="H24" s="3">
-        <v>1607100</v>
+        <v>-809100</v>
       </c>
       <c r="I24" s="3">
+        <v>39700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1660800</v>
+      </c>
+      <c r="K24" s="3">
         <v>575500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>612000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-240900</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,66 +1306,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2404100</v>
+        <v>763500</v>
       </c>
       <c r="E26" s="3">
-        <v>1767600</v>
+        <v>1770000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1332700</v>
+        <v>2484600</v>
       </c>
       <c r="G26" s="3">
-        <v>161300</v>
+        <v>1826700</v>
       </c>
       <c r="H26" s="3">
-        <v>72400</v>
+        <v>-1377300</v>
       </c>
       <c r="I26" s="3">
+        <v>166600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K26" s="3">
         <v>1192500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>684700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4049400</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2498700</v>
+        <v>538900</v>
       </c>
       <c r="E27" s="3">
-        <v>1726900</v>
+        <v>1703400</v>
       </c>
       <c r="F27" s="3">
-        <v>-1358700</v>
+        <v>2582300</v>
       </c>
       <c r="G27" s="3">
-        <v>66000</v>
+        <v>1784700</v>
       </c>
       <c r="H27" s="3">
-        <v>78400</v>
+        <v>-1404200</v>
       </c>
       <c r="I27" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1103700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>622700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1262,8 +1411,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1291,8 +1446,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1320,8 +1481,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1349,66 +1516,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-330900</v>
+        <v>181500</v>
       </c>
       <c r="E32" s="3">
-        <v>575800</v>
+        <v>765800</v>
       </c>
       <c r="F32" s="3">
-        <v>954400</v>
+        <v>-342000</v>
       </c>
       <c r="G32" s="3">
-        <v>823600</v>
+        <v>595100</v>
       </c>
       <c r="H32" s="3">
-        <v>1123800</v>
+        <v>986300</v>
       </c>
       <c r="I32" s="3">
+        <v>870400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1161400</v>
+      </c>
+      <c r="K32" s="3">
         <v>656200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>233200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>430200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>2498700</v>
+        <v>538900</v>
       </c>
       <c r="E33" s="3">
-        <v>1726900</v>
+        <v>1703400</v>
       </c>
       <c r="F33" s="3">
-        <v>-1358700</v>
+        <v>2582300</v>
       </c>
       <c r="G33" s="3">
-        <v>66000</v>
+        <v>1784700</v>
       </c>
       <c r="H33" s="3">
-        <v>78400</v>
+        <v>-1404200</v>
       </c>
       <c r="I33" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1103700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>622700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1436,71 +1621,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>2498700</v>
+        <v>538900</v>
       </c>
       <c r="E35" s="3">
-        <v>1726900</v>
+        <v>1703400</v>
       </c>
       <c r="F35" s="3">
-        <v>-1358700</v>
+        <v>2582300</v>
       </c>
       <c r="G35" s="3">
-        <v>66000</v>
+        <v>1784700</v>
       </c>
       <c r="H35" s="3">
-        <v>78400</v>
+        <v>-1404200</v>
       </c>
       <c r="I35" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1103700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>622700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1512,8 +1715,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,269 +1730,325 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>16258200</v>
+        <v>13807100</v>
       </c>
       <c r="E41" s="3">
-        <v>16463100</v>
+        <v>14563200</v>
       </c>
       <c r="F41" s="3">
-        <v>18480500</v>
+        <v>16802100</v>
       </c>
       <c r="G41" s="3">
-        <v>18464800</v>
+        <v>17013900</v>
       </c>
       <c r="H41" s="3">
-        <v>19342800</v>
+        <v>19098800</v>
       </c>
       <c r="I41" s="3">
+        <v>19082600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>19989900</v>
+      </c>
+      <c r="K41" s="3">
         <v>15101600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>17144300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>17380500</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1007200</v>
+        <v>1076300</v>
       </c>
       <c r="E42" s="3">
-        <v>968800</v>
+        <v>1067600</v>
       </c>
       <c r="F42" s="3">
-        <v>1547300</v>
+        <v>1040900</v>
       </c>
       <c r="G42" s="3">
-        <v>1425000</v>
+        <v>1001200</v>
       </c>
       <c r="H42" s="3">
-        <v>822900</v>
+        <v>1599000</v>
       </c>
       <c r="I42" s="3">
+        <v>1472600</v>
+      </c>
+      <c r="J42" s="3">
+        <v>850400</v>
+      </c>
+      <c r="K42" s="3">
         <v>721700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>634100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>630600</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7043200</v>
+        <v>7729100</v>
       </c>
       <c r="E43" s="3">
-        <v>5945200</v>
+        <v>8999200</v>
       </c>
       <c r="F43" s="3">
-        <v>6079900</v>
+        <v>7278900</v>
       </c>
       <c r="G43" s="3">
-        <v>6059100</v>
+        <v>6144100</v>
       </c>
       <c r="H43" s="3">
-        <v>5665700</v>
+        <v>6283400</v>
       </c>
       <c r="I43" s="3">
+        <v>6261800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5855200</v>
+      </c>
+      <c r="K43" s="3">
         <v>5509600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5878500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6366200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>8815300</v>
+        <v>8927700</v>
       </c>
       <c r="E44" s="3">
-        <v>7283900</v>
+        <v>9964200</v>
       </c>
       <c r="F44" s="3">
-        <v>6966300</v>
+        <v>9110200</v>
       </c>
       <c r="G44" s="3">
-        <v>6413100</v>
+        <v>7527600</v>
       </c>
       <c r="H44" s="3">
-        <v>6604100</v>
+        <v>7199400</v>
       </c>
       <c r="I44" s="3">
+        <v>6627700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6825100</v>
+      </c>
+      <c r="K44" s="3">
         <v>6492700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6852500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>6853700</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>2662900</v>
+        <v>5277600</v>
       </c>
       <c r="E45" s="3">
-        <v>5412900</v>
+        <v>3914400</v>
       </c>
       <c r="F45" s="3">
-        <v>5603900</v>
+        <v>2752000</v>
       </c>
       <c r="G45" s="3">
-        <v>3347100</v>
+        <v>5594000</v>
       </c>
       <c r="H45" s="3">
-        <v>2899800</v>
+        <v>5791400</v>
       </c>
       <c r="I45" s="3">
+        <v>3459100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>2996800</v>
+      </c>
+      <c r="K45" s="3">
         <v>5431500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>5687200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>4679300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>35786800</v>
+        <v>36817700</v>
       </c>
       <c r="E46" s="3">
-        <v>36073800</v>
+        <v>38508500</v>
       </c>
       <c r="F46" s="3">
-        <v>38677900</v>
+        <v>36984100</v>
       </c>
       <c r="G46" s="3">
-        <v>35709100</v>
+        <v>37280700</v>
       </c>
       <c r="H46" s="3">
-        <v>35335300</v>
+        <v>39971900</v>
       </c>
       <c r="I46" s="3">
+        <v>36903800</v>
+      </c>
+      <c r="J46" s="3">
+        <v>36517500</v>
+      </c>
+      <c r="K46" s="3">
         <v>33257100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>36196600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>35910300</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>7833900</v>
+        <v>8249300</v>
       </c>
       <c r="E47" s="3">
-        <v>7196600</v>
+        <v>8056000</v>
       </c>
       <c r="F47" s="3">
-        <v>7413900</v>
+        <v>8096000</v>
       </c>
       <c r="G47" s="3">
-        <v>7292100</v>
+        <v>7437300</v>
       </c>
       <c r="H47" s="3">
-        <v>7553000</v>
+        <v>7661900</v>
       </c>
       <c r="I47" s="3">
+        <v>7536000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7805700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6431000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>6220100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>6254300</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>150208500</v>
+        <v>156348000</v>
       </c>
       <c r="E48" s="3">
-        <v>145361700</v>
+        <v>156578400</v>
       </c>
       <c r="F48" s="3">
-        <v>144967300</v>
+        <v>155234000</v>
       </c>
       <c r="G48" s="3">
-        <v>141599800</v>
+        <v>150225100</v>
       </c>
       <c r="H48" s="3">
-        <v>142706000</v>
+        <v>149817400</v>
       </c>
       <c r="I48" s="3">
+        <v>146337300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>147480500</v>
+      </c>
+      <c r="K48" s="3">
         <v>141215800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>141871000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>142245600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1916700</v>
+        <v>2786900</v>
       </c>
       <c r="E49" s="3">
-        <v>1936500</v>
+        <v>2783000</v>
       </c>
       <c r="F49" s="3">
-        <v>1920100</v>
+        <v>1980800</v>
       </c>
       <c r="G49" s="3">
-        <v>2539800</v>
+        <v>2001300</v>
       </c>
       <c r="H49" s="3">
-        <v>2617200</v>
+        <v>1984400</v>
       </c>
       <c r="I49" s="3">
+        <v>2624800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2704800</v>
+      </c>
+      <c r="K49" s="3">
         <v>2628900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2645300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2700600</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1815,8 +2076,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1844,37 +2111,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>15192200</v>
+        <v>16406300</v>
       </c>
       <c r="E52" s="3">
-        <v>13887300</v>
+        <v>16292900</v>
       </c>
       <c r="F52" s="3">
-        <v>13303000</v>
+        <v>15700500</v>
       </c>
       <c r="G52" s="3">
-        <v>12283200</v>
+        <v>14351900</v>
       </c>
       <c r="H52" s="3">
-        <v>12250400</v>
+        <v>13748100</v>
       </c>
       <c r="I52" s="3">
+        <v>12694100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>12660300</v>
+      </c>
+      <c r="K52" s="3">
         <v>11965600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>12757800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>12148500</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1902,37 +2181,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>210938000</v>
+        <v>220608100</v>
       </c>
       <c r="E54" s="3">
-        <v>204455900</v>
+        <v>222218900</v>
       </c>
       <c r="F54" s="3">
-        <v>206282200</v>
+        <v>217995300</v>
       </c>
       <c r="G54" s="3">
-        <v>199424100</v>
+        <v>211296300</v>
       </c>
       <c r="H54" s="3">
-        <v>200462000</v>
+        <v>213183800</v>
       </c>
       <c r="I54" s="3">
+        <v>206096200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>207168900</v>
+      </c>
+      <c r="K54" s="3">
         <v>195498500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>199690800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>199259300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,8 +2235,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1957,182 +2250,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>5152400</v>
+        <v>6285400</v>
       </c>
       <c r="E57" s="3">
-        <v>4472100</v>
+        <v>7039700</v>
       </c>
       <c r="F57" s="3">
-        <v>4732600</v>
+        <v>5324800</v>
       </c>
       <c r="G57" s="3">
-        <v>4700900</v>
+        <v>4621800</v>
       </c>
       <c r="H57" s="3">
-        <v>4217600</v>
+        <v>4891000</v>
       </c>
       <c r="I57" s="3">
+        <v>4858100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4358700</v>
+      </c>
+      <c r="K57" s="3">
         <v>3702600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4659200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4300200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3808800</v>
+        <v>3665200</v>
       </c>
       <c r="E58" s="3">
-        <v>3838800</v>
+        <v>4162300</v>
       </c>
       <c r="F58" s="3">
-        <v>5766400</v>
+        <v>3936200</v>
       </c>
       <c r="G58" s="3">
-        <v>4647000</v>
+        <v>3967200</v>
       </c>
       <c r="H58" s="3">
-        <v>5338400</v>
+        <v>5959300</v>
       </c>
       <c r="I58" s="3">
+        <v>4802500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>5517000</v>
+      </c>
+      <c r="K58" s="3">
         <v>7230800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>6593500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7752500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>12038600</v>
+        <v>14935700</v>
       </c>
       <c r="E59" s="3">
-        <v>11068100</v>
+        <v>12916200</v>
       </c>
       <c r="F59" s="3">
-        <v>9976300</v>
+        <v>12441400</v>
       </c>
       <c r="G59" s="3">
-        <v>8327300</v>
+        <v>11438400</v>
       </c>
       <c r="H59" s="3">
-        <v>7801600</v>
+        <v>10310100</v>
       </c>
       <c r="I59" s="3">
+        <v>8605900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8062600</v>
+      </c>
+      <c r="K59" s="3">
         <v>8535200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8883200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8495700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>20999700</v>
+        <v>24886300</v>
       </c>
       <c r="E60" s="3">
-        <v>19379000</v>
+        <v>24118200</v>
       </c>
       <c r="F60" s="3">
-        <v>20475300</v>
+        <v>21702300</v>
       </c>
       <c r="G60" s="3">
-        <v>17675200</v>
+        <v>20027400</v>
       </c>
       <c r="H60" s="3">
-        <v>17357700</v>
+        <v>21160300</v>
       </c>
       <c r="I60" s="3">
+        <v>18266600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17938400</v>
+      </c>
+      <c r="K60" s="3">
         <v>19468600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20135900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20548500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>83918000</v>
+        <v>80139300</v>
       </c>
       <c r="E61" s="3">
-        <v>80751300</v>
+        <v>86288800</v>
       </c>
       <c r="F61" s="3">
-        <v>83910300</v>
+        <v>86725700</v>
       </c>
       <c r="G61" s="3">
-        <v>83350700</v>
+        <v>83453000</v>
       </c>
       <c r="H61" s="3">
-        <v>86977300</v>
+        <v>86717700</v>
       </c>
       <c r="I61" s="3">
+        <v>86139300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>89887300</v>
+      </c>
+      <c r="K61" s="3">
         <v>81813600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>87802700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>89572800</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>34710100</v>
+        <v>42887800</v>
       </c>
       <c r="E62" s="3">
-        <v>35420600</v>
+        <v>35878600</v>
       </c>
       <c r="F62" s="3">
-        <v>35012000</v>
+        <v>35871400</v>
       </c>
       <c r="G62" s="3">
-        <v>32776300</v>
+        <v>36605700</v>
       </c>
       <c r="H62" s="3">
-        <v>31342400</v>
+        <v>36183400</v>
       </c>
       <c r="I62" s="3">
+        <v>33872900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>32391000</v>
+      </c>
+      <c r="K62" s="3">
         <v>29587500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>29051700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>24137200</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2160,8 +2491,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2189,8 +2526,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,37 +2561,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>140944900</v>
+        <v>149533100</v>
       </c>
       <c r="E66" s="3">
-        <v>136987300</v>
+        <v>147775100</v>
       </c>
       <c r="F66" s="3">
-        <v>140792800</v>
+        <v>145660500</v>
       </c>
       <c r="G66" s="3">
-        <v>134485700</v>
+        <v>141570500</v>
       </c>
       <c r="H66" s="3">
-        <v>136299900</v>
+        <v>145503300</v>
       </c>
       <c r="I66" s="3">
+        <v>138985100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>140860000</v>
+      </c>
+      <c r="K66" s="3">
         <v>131538500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>137613700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>134873900</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,8 +2615,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2289,8 +2646,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2318,8 +2681,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2347,8 +2716,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2376,37 +2751,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>23621700</v>
+        <v>25079600</v>
       </c>
       <c r="E72" s="3">
-        <v>21284300</v>
+        <v>25941300</v>
       </c>
       <c r="F72" s="3">
-        <v>19802000</v>
+        <v>24412000</v>
       </c>
       <c r="G72" s="3">
-        <v>20807500</v>
+        <v>21996400</v>
       </c>
       <c r="H72" s="3">
-        <v>20743500</v>
+        <v>20464500</v>
       </c>
       <c r="I72" s="3">
+        <v>21503600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>21437500</v>
+      </c>
+      <c r="K72" s="3">
         <v>20661300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>19557400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>18688600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2434,8 +2821,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2463,8 +2856,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2492,37 +2891,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>69993000</v>
+        <v>71074900</v>
       </c>
       <c r="E76" s="3">
-        <v>67468600</v>
+        <v>74443800</v>
       </c>
       <c r="F76" s="3">
-        <v>65489400</v>
+        <v>72334800</v>
       </c>
       <c r="G76" s="3">
-        <v>64938400</v>
+        <v>69725900</v>
       </c>
       <c r="H76" s="3">
-        <v>64162200</v>
+        <v>67680500</v>
       </c>
       <c r="I76" s="3">
+        <v>67111100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>66308800</v>
+      </c>
+      <c r="K76" s="3">
         <v>63960000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>62077100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>64385400</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2550,71 +2961,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>2498700</v>
+        <v>538900</v>
       </c>
       <c r="E81" s="3">
-        <v>1726900</v>
+        <v>1703400</v>
       </c>
       <c r="F81" s="3">
-        <v>-1358700</v>
+        <v>2582300</v>
       </c>
       <c r="G81" s="3">
-        <v>66000</v>
+        <v>1784700</v>
       </c>
       <c r="H81" s="3">
-        <v>78400</v>
+        <v>-1404200</v>
       </c>
       <c r="I81" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>81000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1103700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>622700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2626,37 +3055,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2719700</v>
+        <v>2801200</v>
       </c>
       <c r="E83" s="3">
-        <v>2743000</v>
+        <v>2743300</v>
       </c>
       <c r="F83" s="3">
-        <v>2591200</v>
+        <v>2810700</v>
       </c>
       <c r="G83" s="3">
-        <v>2700400</v>
+        <v>2834800</v>
       </c>
       <c r="H83" s="3">
-        <v>2575600</v>
+        <v>2677900</v>
       </c>
       <c r="I83" s="3">
+        <v>2790700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2661700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2670800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2785700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>3154600</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2684,8 +3121,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2713,8 +3156,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2742,8 +3191,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2771,8 +3226,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2800,37 +3261,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>6349600</v>
+        <v>6693600</v>
       </c>
       <c r="E89" s="3">
-        <v>5511800</v>
+        <v>5621100</v>
       </c>
       <c r="F89" s="3">
-        <v>4854200</v>
+        <v>6562000</v>
       </c>
       <c r="G89" s="3">
-        <v>5959400</v>
+        <v>5696300</v>
       </c>
       <c r="H89" s="3">
-        <v>4875500</v>
+        <v>5016600</v>
       </c>
       <c r="I89" s="3">
+        <v>6158800</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5038600</v>
+      </c>
+      <c r="K89" s="3">
         <v>5761700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>5849500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>6627500</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2842,37 +3315,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2506600</v>
+        <v>-2570200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2460700</v>
+        <v>-3573700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3349300</v>
+        <v>-2590500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2339900</v>
+        <v>-2543000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2643800</v>
+        <v>-3461400</v>
       </c>
       <c r="I91" s="3">
+        <v>-2418200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2732200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2486800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>5987900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-5057900</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2900,8 +3381,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2929,37 +3416,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>6900</v>
+        <v>-1415500</v>
       </c>
       <c r="E94" s="3">
-        <v>158300</v>
+        <v>-3562900</v>
       </c>
       <c r="F94" s="3">
-        <v>-3053400</v>
+        <v>7200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2877500</v>
+        <v>163600</v>
       </c>
       <c r="H94" s="3">
-        <v>-756400</v>
+        <v>-3155500</v>
       </c>
       <c r="I94" s="3">
+        <v>-2973800</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-781700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2049600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1710800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1957600</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2971,16 +3470,18 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-302000</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-152500</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -3000,8 +3501,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3029,8 +3536,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3058,8 +3571,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3087,91 +3606,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-8743800</v>
+        <v>-5562400</v>
       </c>
       <c r="E100" s="3">
-        <v>-7563000</v>
+        <v>-4781000</v>
       </c>
       <c r="F100" s="3">
-        <v>-2447300</v>
+        <v>-9036400</v>
       </c>
       <c r="G100" s="3">
-        <v>-3120400</v>
+        <v>-7816000</v>
       </c>
       <c r="H100" s="3">
-        <v>-664600</v>
+        <v>-2529200</v>
       </c>
       <c r="I100" s="3">
+        <v>-3224700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-686800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-5299000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-4395700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-3001000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>2182400</v>
+        <v>-471700</v>
       </c>
       <c r="E101" s="3">
-        <v>-124500</v>
+        <v>483800</v>
       </c>
       <c r="F101" s="3">
-        <v>662100</v>
+        <v>2255400</v>
       </c>
       <c r="G101" s="3">
-        <v>-839500</v>
+        <v>-128700</v>
       </c>
       <c r="H101" s="3">
-        <v>786700</v>
+        <v>684300</v>
       </c>
       <c r="I101" s="3">
+        <v>-867600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>813000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-455700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-20100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-204900</v>
+        <v>-756100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2017400</v>
+        <v>-2239000</v>
       </c>
       <c r="F102" s="3">
-        <v>15600</v>
+        <v>-211800</v>
       </c>
       <c r="G102" s="3">
-        <v>-878000</v>
+        <v>-2084900</v>
       </c>
       <c r="H102" s="3">
-        <v>4241200</v>
+        <v>16200</v>
       </c>
       <c r="I102" s="3">
+        <v>-907300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>4383100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2042700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-236200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1766300</v>
       </c>
     </row>

--- a/Financials/Quarterly/PBR_QTR_FIN.xlsx
+++ b/Financials/Quarterly/PBR_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F91EF8E-C69D-411A-B11A-8C5FDBEEC15F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="PBR" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>PBR</t>
   </si>
@@ -296,12 +295,15 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,172 +654,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23771600</v>
+        <v>17992900</v>
       </c>
       <c r="E8" s="3">
-        <v>25191900</v>
+        <v>16945800</v>
       </c>
       <c r="F8" s="3">
-        <v>21637200</v>
+        <v>16546300</v>
       </c>
       <c r="G8" s="3">
-        <v>19090300</v>
+        <v>21652000</v>
       </c>
       <c r="H8" s="3">
+        <v>20800100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>17473800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>17388100</v>
+      </c>
+      <c r="K8" s="3">
         <v>19616100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>18413700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>17176400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>16960000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>17486900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>17475500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>15694800</v>
+        <v>10985900</v>
       </c>
       <c r="E9" s="3">
-        <v>16309900</v>
+        <v>9891200</v>
       </c>
       <c r="F9" s="3">
-        <v>13529700</v>
+        <v>10747300</v>
       </c>
       <c r="G9" s="3">
-        <v>12226200</v>
+        <v>14295400</v>
       </c>
       <c r="H9" s="3">
+        <v>27920600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22719600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>11136100</v>
+      </c>
+      <c r="K9" s="3">
         <v>13154600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>12969000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>11697900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>11059200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>11827700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>11686100</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>8076700</v>
+        <v>7007000</v>
       </c>
       <c r="E10" s="3">
-        <v>8882000</v>
+        <v>7054600</v>
       </c>
       <c r="F10" s="3">
-        <v>8107500</v>
+        <v>5799000</v>
       </c>
       <c r="G10" s="3">
-        <v>6864100</v>
+        <v>7356600</v>
       </c>
       <c r="H10" s="3">
+        <v>-7120500</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-5245800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6252000</v>
+      </c>
+      <c r="K10" s="3">
         <v>6461500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>5444700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>5478600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>5900800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>5659200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>5789400</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -865,43 +869,55 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>282000</v>
+        <v>199400</v>
       </c>
       <c r="E12" s="3">
-        <v>266400</v>
+        <v>225600</v>
       </c>
       <c r="F12" s="3">
-        <v>301800</v>
+        <v>273900</v>
       </c>
       <c r="G12" s="3">
-        <v>240200</v>
+        <v>256900</v>
       </c>
       <c r="H12" s="3">
+        <v>242400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>274600</v>
+      </c>
+      <c r="J12" s="3">
+        <v>218800</v>
+      </c>
+      <c r="K12" s="3">
         <v>387900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>281000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>295300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>157000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>430200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="P12" s="3">
         <v>583000</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,66 +951,84 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>2877100</v>
+        <v>1417000</v>
       </c>
       <c r="E14" s="3">
-        <v>286400</v>
+        <v>219500</v>
       </c>
       <c r="F14" s="3">
-        <v>374100</v>
+        <v>305200</v>
       </c>
       <c r="G14" s="3">
-        <v>341000</v>
+        <v>2620600</v>
       </c>
       <c r="H14" s="3">
+        <v>543400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>319700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>310600</v>
+      </c>
+      <c r="K14" s="3">
         <v>931700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>434100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="M14" s="3">
         <v>34900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="N14" s="3">
         <v>306100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="O14" s="3">
         <v>770000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>4455000</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>159000</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>174000</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>157200</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>51100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>46900</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1005,8 +1039,17 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20802700</v>
+        <v>14652900</v>
       </c>
       <c r="E17" s="3">
-        <v>20578600</v>
+        <v>7783200</v>
       </c>
       <c r="F17" s="3">
-        <v>17284900</v>
+        <v>13270900</v>
       </c>
       <c r="G17" s="3">
-        <v>14391900</v>
+        <v>18947800</v>
       </c>
       <c r="H17" s="3">
+        <v>16927900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>13543700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>13108600</v>
+      </c>
+      <c r="K17" s="3">
         <v>19854600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>16307300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>13175600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>13268100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>14717100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>19999000</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>2968900</v>
+        <v>3340000</v>
       </c>
       <c r="E18" s="3">
-        <v>4613300</v>
+        <v>9162600</v>
       </c>
       <c r="F18" s="3">
-        <v>4352300</v>
+        <v>3275400</v>
       </c>
       <c r="G18" s="3">
-        <v>4698400</v>
+        <v>2704200</v>
       </c>
       <c r="H18" s="3">
+        <v>3872200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3930100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>4279500</v>
+      </c>
+      <c r="K18" s="3">
         <v>-238400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>2106400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>4000800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>3691900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>2769800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-2523500</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1102,183 +1166,231 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-181500</v>
+        <v>-1299300</v>
       </c>
       <c r="E20" s="3">
-        <v>-765800</v>
+        <v>-777400</v>
       </c>
       <c r="F20" s="3">
-        <v>342000</v>
+        <v>-821500</v>
       </c>
       <c r="G20" s="3">
-        <v>-595100</v>
+        <v>-165300</v>
       </c>
       <c r="H20" s="3">
+        <v>-512300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>202000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-542000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-986300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-870400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-1161400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-656200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-233200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-430200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>5588600</v>
+        <v>5540000</v>
       </c>
       <c r="E21" s="3">
-        <v>6590800</v>
+        <v>11787200</v>
       </c>
       <c r="F21" s="3">
-        <v>7505000</v>
+        <v>5724000</v>
       </c>
       <c r="G21" s="3">
-        <v>6938200</v>
+        <v>5163800</v>
       </c>
       <c r="H21" s="3">
+        <v>5834700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6642500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>6319500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1453200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>4026700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>5501100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>5706600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>5322300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>200900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1194200</v>
+        <v>1240000</v>
       </c>
       <c r="E22" s="3">
-        <v>731700</v>
+        <v>1225300</v>
       </c>
       <c r="F22" s="3">
-        <v>1020600</v>
+        <v>1144500</v>
       </c>
       <c r="G22" s="3">
-        <v>1262700</v>
+        <v>1087700</v>
       </c>
       <c r="H22" s="3">
+        <v>936400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>889500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K22" s="3">
         <v>961700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>1029600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>1103700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>1267700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>1239900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="P22" s="3">
         <v>1336700</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1593100</v>
+        <v>800700</v>
       </c>
       <c r="E23" s="3">
-        <v>3115800</v>
+        <v>7160000</v>
       </c>
       <c r="F23" s="3">
-        <v>3673700</v>
+        <v>1309300</v>
       </c>
       <c r="G23" s="3">
-        <v>2840700</v>
+        <v>1451100</v>
       </c>
       <c r="H23" s="3">
+        <v>2423500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3242700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2587400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2186400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>206400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1735700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>1768100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>1296700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-4290300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>829600</v>
+        <v>919600</v>
       </c>
       <c r="E24" s="3">
-        <v>1345700</v>
+        <v>2711400</v>
       </c>
       <c r="F24" s="3">
-        <v>1189100</v>
+        <v>430600</v>
       </c>
       <c r="G24" s="3">
-        <v>1014000</v>
+        <v>755700</v>
       </c>
       <c r="H24" s="3">
+        <v>1063200</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1041000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>923600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-809100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>39700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>1660800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>575500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>612000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>-240900</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1312,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>763500</v>
+        <v>-118900</v>
       </c>
       <c r="E26" s="3">
-        <v>1770000</v>
+        <v>4448600</v>
       </c>
       <c r="F26" s="3">
-        <v>2484600</v>
+        <v>878700</v>
       </c>
       <c r="G26" s="3">
-        <v>1826700</v>
+        <v>695400</v>
       </c>
       <c r="H26" s="3">
+        <v>1360300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>2201600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1663800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1377300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>166600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>74900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>1192500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>684700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-4049400</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>538900</v>
+        <v>-61200</v>
       </c>
       <c r="E27" s="3">
-        <v>1703400</v>
+        <v>4335100</v>
       </c>
       <c r="F27" s="3">
-        <v>2582300</v>
+        <v>829900</v>
       </c>
       <c r="G27" s="3">
-        <v>1784700</v>
+        <v>490900</v>
       </c>
       <c r="H27" s="3">
+        <v>1299500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2290600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1625500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1404200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>68200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>81000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>1103700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>622700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,31 +1556,40 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>2183200</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>70500</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>111400</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>252000</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>61400</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1452,8 +1600,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,78 +1688,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>181500</v>
+        <v>1299300</v>
       </c>
       <c r="E32" s="3">
-        <v>765800</v>
+        <v>777400</v>
       </c>
       <c r="F32" s="3">
-        <v>-342000</v>
+        <v>821500</v>
       </c>
       <c r="G32" s="3">
-        <v>595100</v>
+        <v>165300</v>
       </c>
       <c r="H32" s="3">
+        <v>512300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>542000</v>
+      </c>
+      <c r="K32" s="3">
         <v>986300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>870400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>1161400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>656200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>233200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>430200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>538900</v>
+        <v>2122000</v>
       </c>
       <c r="E33" s="3">
-        <v>1703400</v>
+        <v>4405600</v>
       </c>
       <c r="F33" s="3">
-        <v>2582300</v>
+        <v>941300</v>
       </c>
       <c r="G33" s="3">
-        <v>1784700</v>
+        <v>490900</v>
       </c>
       <c r="H33" s="3">
+        <v>1551500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1625500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1404200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>68200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>81000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>1103700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>622700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1627,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>538900</v>
+        <v>2122000</v>
       </c>
       <c r="E35" s="3">
-        <v>1703400</v>
+        <v>4405600</v>
       </c>
       <c r="F35" s="3">
-        <v>2582300</v>
+        <v>941300</v>
       </c>
       <c r="G35" s="3">
-        <v>1784700</v>
+        <v>490900</v>
       </c>
       <c r="H35" s="3">
+        <v>1551500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1625500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1404200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>68200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>81000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>1103700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>622700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1717,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,323 +1955,407 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>13807100</v>
+        <v>12816000</v>
       </c>
       <c r="E41" s="3">
-        <v>14563200</v>
+        <v>14957400</v>
       </c>
       <c r="F41" s="3">
-        <v>16802100</v>
+        <v>8517900</v>
       </c>
       <c r="G41" s="3">
-        <v>17013900</v>
+        <v>12576000</v>
       </c>
       <c r="H41" s="3">
+        <v>13264600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>15304000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>15496900</v>
+      </c>
+      <c r="K41" s="3">
         <v>19098800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>19082600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>19989900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>15101600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>17144300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>17380500</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1076300</v>
+        <v>1267300</v>
       </c>
       <c r="E42" s="3">
-        <v>1067600</v>
+        <v>573500</v>
       </c>
       <c r="F42" s="3">
-        <v>1040900</v>
+        <v>1020500</v>
       </c>
       <c r="G42" s="3">
-        <v>1001200</v>
+        <v>980300</v>
       </c>
       <c r="H42" s="3">
+        <v>972400</v>
+      </c>
+      <c r="I42" s="3">
+        <v>948100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>911900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1599000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>1472600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>850400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>721700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>634100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>630600</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>7729100</v>
+        <v>6604600</v>
       </c>
       <c r="E43" s="3">
-        <v>8999200</v>
+        <v>5729400</v>
       </c>
       <c r="F43" s="3">
-        <v>7278900</v>
+        <v>6453300</v>
       </c>
       <c r="G43" s="3">
-        <v>6144100</v>
+        <v>7039900</v>
       </c>
       <c r="H43" s="3">
+        <v>8196800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>6629900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5596300</v>
+      </c>
+      <c r="K43" s="3">
         <v>6283400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>6261800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>5855200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>5509600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>5878500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>6366200</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>8927700</v>
+        <v>7375300</v>
       </c>
       <c r="E44" s="3">
-        <v>9964200</v>
+        <v>7995300</v>
       </c>
       <c r="F44" s="3">
-        <v>9110200</v>
+        <v>7697300</v>
       </c>
       <c r="G44" s="3">
-        <v>7527600</v>
+        <v>8131600</v>
       </c>
       <c r="H44" s="3">
+        <v>9075800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>8297900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>6856400</v>
+      </c>
+      <c r="K44" s="3">
         <v>7199400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>6627700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>6825100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>6492700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>6852500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>6853700</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>5277600</v>
+        <v>6404500</v>
       </c>
       <c r="E45" s="3">
-        <v>3914400</v>
+        <v>13089300</v>
       </c>
       <c r="F45" s="3">
-        <v>2752000</v>
+        <v>6809900</v>
       </c>
       <c r="G45" s="3">
-        <v>5594000</v>
+        <v>4807000</v>
       </c>
       <c r="H45" s="3">
+        <v>3565400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>2506600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>5095200</v>
+      </c>
+      <c r="K45" s="3">
         <v>5791400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>3459100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>2996800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>5431500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>5687200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>4679300</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>36817700</v>
+        <v>34467800</v>
       </c>
       <c r="E46" s="3">
-        <v>38508500</v>
+        <v>42344900</v>
       </c>
       <c r="F46" s="3">
-        <v>36984100</v>
+        <v>30498900</v>
       </c>
       <c r="G46" s="3">
-        <v>37280700</v>
+        <v>33534900</v>
       </c>
       <c r="H46" s="3">
+        <v>35074900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>33686400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>33956600</v>
+      </c>
+      <c r="K46" s="3">
         <v>39971900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>36903800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>36517500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>33257100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>36196600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>35910300</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>8249300</v>
+        <v>7952800</v>
       </c>
       <c r="E47" s="3">
-        <v>8056000</v>
+        <v>7844400</v>
       </c>
       <c r="F47" s="3">
-        <v>8096000</v>
+        <v>7502100</v>
       </c>
       <c r="G47" s="3">
-        <v>7437300</v>
+        <v>7513700</v>
       </c>
       <c r="H47" s="3">
+        <v>7337700</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7374100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6774200</v>
+      </c>
+      <c r="K47" s="3">
         <v>7661900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>7536000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>7805700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>6431000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>6220100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>6254300</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>156348000</v>
+        <v>156164600</v>
       </c>
       <c r="E48" s="3">
-        <v>156578400</v>
+        <v>158203300</v>
       </c>
       <c r="F48" s="3">
-        <v>155234000</v>
+        <v>165618700</v>
       </c>
       <c r="G48" s="3">
-        <v>150225100</v>
+        <v>142407300</v>
       </c>
       <c r="H48" s="3">
+        <v>142617200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>141392600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>136830300</v>
+      </c>
+      <c r="K48" s="3">
         <v>149817400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>146337300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>147480500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>141215800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>141871000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>142245600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>2786900</v>
+        <v>2313500</v>
       </c>
       <c r="E49" s="3">
-        <v>2783000</v>
+        <v>2311800</v>
       </c>
       <c r="F49" s="3">
-        <v>1980800</v>
+        <v>2534600</v>
       </c>
       <c r="G49" s="3">
-        <v>2001300</v>
+        <v>2538400</v>
       </c>
       <c r="H49" s="3">
+        <v>2534900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>1804200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>1822900</v>
+      </c>
+      <c r="K49" s="3">
         <v>1984400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>2624800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>2704800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>2628900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>2645300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>2700600</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2082,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2117,43 +2433,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>16406300</v>
+        <v>14982400</v>
       </c>
       <c r="E52" s="3">
-        <v>16292900</v>
+        <v>14700300</v>
       </c>
       <c r="F52" s="3">
-        <v>15700500</v>
+        <v>15476500</v>
       </c>
       <c r="G52" s="3">
-        <v>14351900</v>
+        <v>14943400</v>
       </c>
       <c r="H52" s="3">
+        <v>14840200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>14300500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>13072200</v>
+      </c>
+      <c r="K52" s="3">
         <v>13748100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>12694100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>12660300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>11965600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>12757800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>12148500</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2187,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>220608100</v>
+        <v>215881100</v>
       </c>
       <c r="E54" s="3">
-        <v>222218900</v>
+        <v>225404700</v>
       </c>
       <c r="F54" s="3">
-        <v>217995300</v>
+        <v>221630800</v>
       </c>
       <c r="G54" s="3">
-        <v>211296300</v>
+        <v>200937700</v>
       </c>
       <c r="H54" s="3">
+        <v>202404900</v>
+      </c>
+      <c r="I54" s="3">
+        <v>198557900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>192456200</v>
+      </c>
+      <c r="K54" s="3">
         <v>213183800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>206096200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>207168900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>195498500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>199690800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>199259300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2237,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,218 +2607,275 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>6285400</v>
+        <v>5687800</v>
       </c>
       <c r="E57" s="3">
-        <v>7039700</v>
+        <v>5098200</v>
       </c>
       <c r="F57" s="3">
-        <v>5324800</v>
+        <v>5350400</v>
       </c>
       <c r="G57" s="3">
-        <v>4621800</v>
+        <v>5725000</v>
       </c>
       <c r="H57" s="3">
+        <v>6412000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>4850000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4209700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4891000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>4858100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>4358700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>3702600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>4659200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>4300200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>3665200</v>
+        <v>12811100</v>
       </c>
       <c r="E58" s="3">
-        <v>4162300</v>
+        <v>10363600</v>
       </c>
       <c r="F58" s="3">
-        <v>3936200</v>
+        <v>8426100</v>
       </c>
       <c r="G58" s="3">
-        <v>3967200</v>
+        <v>3338400</v>
       </c>
       <c r="H58" s="3">
+        <v>3791200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3585200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3613500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5959300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>4802500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>5517000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>7230800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>6593500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>7752500</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>14935700</v>
+        <v>12713300</v>
       </c>
       <c r="E59" s="3">
-        <v>12916200</v>
+        <v>16844700</v>
       </c>
       <c r="F59" s="3">
-        <v>12441400</v>
+        <v>12737100</v>
       </c>
       <c r="G59" s="3">
-        <v>11438400</v>
+        <v>13603900</v>
       </c>
       <c r="H59" s="3">
+        <v>11764500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>11332000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10418500</v>
+      </c>
+      <c r="K59" s="3">
         <v>10310100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>8605900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>8062600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>8535200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>8883200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>8495700</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>24886300</v>
+        <v>31212300</v>
       </c>
       <c r="E60" s="3">
-        <v>24118200</v>
+        <v>32306600</v>
       </c>
       <c r="F60" s="3">
-        <v>21702300</v>
+        <v>26513600</v>
       </c>
       <c r="G60" s="3">
-        <v>20027400</v>
+        <v>22667300</v>
       </c>
       <c r="H60" s="3">
+        <v>21967700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>19767200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>18241600</v>
+      </c>
+      <c r="K60" s="3">
         <v>21160300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>18266600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>17938400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>19468600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>20135900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>20548500</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>80139300</v>
+        <v>74614300</v>
       </c>
       <c r="E61" s="3">
-        <v>86288800</v>
+        <v>80046500</v>
       </c>
       <c r="F61" s="3">
-        <v>86725700</v>
+        <v>88035900</v>
       </c>
       <c r="G61" s="3">
-        <v>83453000</v>
+        <v>72993700</v>
       </c>
       <c r="H61" s="3">
+        <v>78594900</v>
+      </c>
+      <c r="I61" s="3">
+        <v>78992800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>76011900</v>
+      </c>
+      <c r="K61" s="3">
         <v>86717700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>86139300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>89887300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>81813600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>87802700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>89572800</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>42887800</v>
+        <v>37721000</v>
       </c>
       <c r="E62" s="3">
-        <v>35878600</v>
+        <v>40796400</v>
       </c>
       <c r="F62" s="3">
-        <v>35871400</v>
+        <v>39586800</v>
       </c>
       <c r="G62" s="3">
-        <v>36605700</v>
+        <v>39063700</v>
       </c>
       <c r="H62" s="3">
+        <v>32679500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>32673000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>33341800</v>
+      </c>
+      <c r="K62" s="3">
         <v>36183400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>33872900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>32391000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>29587500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>29051700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>24137200</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2497,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2567,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>149533100</v>
+        <v>144365100</v>
       </c>
       <c r="E66" s="3">
-        <v>147775100</v>
+        <v>154503600</v>
       </c>
       <c r="F66" s="3">
-        <v>145660500</v>
+        <v>155624300</v>
       </c>
       <c r="G66" s="3">
-        <v>141570500</v>
+        <v>136200100</v>
       </c>
       <c r="H66" s="3">
+        <v>134598800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>132672800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>128947400</v>
+      </c>
+      <c r="K66" s="3">
         <v>145503300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>138985100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>140860000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>131538500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>137613700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>134873900</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2617,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2652,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2687,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2722,8 +3191,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2757,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>25079600</v>
+        <v>29397100</v>
       </c>
       <c r="E72" s="3">
-        <v>25941300</v>
+        <v>27885600</v>
       </c>
       <c r="F72" s="3">
-        <v>24412000</v>
+        <v>23785400</v>
       </c>
       <c r="G72" s="3">
-        <v>21996400</v>
+        <v>22843400</v>
       </c>
       <c r="H72" s="3">
+        <v>23628300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>22235300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>20035100</v>
+      </c>
+      <c r="K72" s="3">
         <v>20464500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>21503600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>21437500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>20661300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>19557400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>18688600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2827,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2862,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>71074900</v>
+        <v>71516000</v>
       </c>
       <c r="E76" s="3">
-        <v>74443800</v>
+        <v>70901100</v>
       </c>
       <c r="F76" s="3">
-        <v>72334800</v>
+        <v>66006500</v>
       </c>
       <c r="G76" s="3">
-        <v>69725900</v>
+        <v>64737600</v>
       </c>
       <c r="H76" s="3">
+        <v>67806000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>65885100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>63508800</v>
+      </c>
+      <c r="K76" s="3">
         <v>67680500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>67111100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>66308800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>63960000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>62077100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>64385400</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2967,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>538900</v>
+        <v>2122000</v>
       </c>
       <c r="E81" s="3">
-        <v>1703400</v>
+        <v>4405600</v>
       </c>
       <c r="F81" s="3">
-        <v>2582300</v>
+        <v>941300</v>
       </c>
       <c r="G81" s="3">
-        <v>1784700</v>
+        <v>490900</v>
       </c>
       <c r="H81" s="3">
+        <v>1551500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>2352000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1625500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1404200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>68200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>81000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>1103700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>622700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-4082900</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3057,43 +3616,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>2801200</v>
+        <v>3499300</v>
       </c>
       <c r="E83" s="3">
-        <v>2743300</v>
+        <v>3401900</v>
       </c>
       <c r="F83" s="3">
-        <v>2810700</v>
+        <v>3270200</v>
       </c>
       <c r="G83" s="3">
-        <v>2834800</v>
+        <v>2551400</v>
       </c>
       <c r="H83" s="3">
+        <v>2498700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2560100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2582000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2677900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>2790700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>2661700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>2670800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>2785700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>3154600</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3127,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3162,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3197,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3232,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3267,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>6693600</v>
+        <v>7665100</v>
       </c>
       <c r="E89" s="3">
-        <v>5621100</v>
+        <v>4787200</v>
       </c>
       <c r="F89" s="3">
-        <v>6562000</v>
+        <v>4144700</v>
       </c>
       <c r="G89" s="3">
-        <v>5696300</v>
+        <v>6096700</v>
       </c>
       <c r="H89" s="3">
+        <v>5119900</v>
+      </c>
+      <c r="I89" s="3">
+        <v>5976900</v>
+      </c>
+      <c r="J89" s="3">
+        <v>5188300</v>
+      </c>
+      <c r="K89" s="3">
         <v>5016600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>6158800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>5038600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>5761700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>5849500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>6627500</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3317,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-2570200</v>
+        <v>-1648000</v>
       </c>
       <c r="E91" s="3">
-        <v>-3573700</v>
+        <v>-1843400</v>
       </c>
       <c r="F91" s="3">
-        <v>-2590500</v>
+        <v>-1417500</v>
       </c>
       <c r="G91" s="3">
-        <v>-2543000</v>
+        <v>-2407600</v>
       </c>
       <c r="H91" s="3">
+        <v>-3228600</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-2319300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2316300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3461400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-2418200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-2732200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-2486800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>5987900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-5057900</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3422,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-1415500</v>
+        <v>-595700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3562900</v>
+        <v>7261800</v>
       </c>
       <c r="F94" s="3">
-        <v>7200</v>
+        <v>-1065100</v>
       </c>
       <c r="G94" s="3">
-        <v>163600</v>
+        <v>-1522800</v>
       </c>
       <c r="H94" s="3">
+        <v>-3073800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>68700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>149000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3155500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-2973800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-781700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-2049600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-1710800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-1957600</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3472,25 +4136,28 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-302000</v>
+        <v>-276500</v>
       </c>
       <c r="E96" s="3">
-        <v>-152500</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-275100</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-138900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -3507,8 +4174,17 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3542,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3577,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3612,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-5562400</v>
+        <v>-11297700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4781000</v>
+        <v>-5020000</v>
       </c>
       <c r="F100" s="3">
-        <v>-9036400</v>
+        <v>-7053200</v>
       </c>
       <c r="G100" s="3">
-        <v>-7816000</v>
+        <v>-5066400</v>
       </c>
       <c r="H100" s="3">
+        <v>-4354700</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-8230600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-7119100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2529200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>-3224700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>-686800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>-5299000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>-4395700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>-3001000</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-471700</v>
+        <v>1646800</v>
       </c>
       <c r="E101" s="3">
-        <v>483800</v>
+        <v>-149200</v>
       </c>
       <c r="F101" s="3">
-        <v>2255400</v>
+        <v>-84500</v>
       </c>
       <c r="G101" s="3">
-        <v>-128700</v>
+        <v>-429700</v>
       </c>
       <c r="H101" s="3">
+        <v>440700</v>
+      </c>
+      <c r="I101" s="3">
+        <v>2054300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-117200</v>
+      </c>
+      <c r="K101" s="3">
         <v>684300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-867600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>813000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-455700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>-20100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>97500</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-756100</v>
+        <v>-2581600</v>
       </c>
       <c r="E102" s="3">
-        <v>-2239000</v>
+        <v>6879700</v>
       </c>
       <c r="F102" s="3">
-        <v>-211800</v>
+        <v>-4058100</v>
       </c>
       <c r="G102" s="3">
-        <v>-2084900</v>
+        <v>-688700</v>
       </c>
       <c r="H102" s="3">
+        <v>-2039300</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-192900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1899000</v>
+      </c>
+      <c r="K102" s="3">
         <v>16200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-907300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>4383100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-2042700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-236200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>1766300</v>
       </c>
     </row>
